--- a/Enum_audioName.xlsx
+++ b/Enum_audioName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daqiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HULU</t>
   </si>
   <si>
@@ -255,6 +247,22 @@
   </si>
   <si>
     <t>牛牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三同花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四套三条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -671,229 +679,323 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C37" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Enum_audioName.xlsx
+++ b/Enum_audioName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,9 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teshu3</t>
-  </si>
-  <si>
     <t>btn_click</t>
   </si>
   <si>
@@ -96,32 +93,14 @@
     <t>start_compare</t>
   </si>
   <si>
-    <t>teshu1</t>
-  </si>
-  <si>
     <t>清龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teshu2</t>
-  </si>
-  <si>
     <t>一条龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teshu4</t>
-  </si>
-  <si>
-    <t>teshu6</t>
-  </si>
-  <si>
-    <t>teshu7</t>
-  </si>
-  <si>
-    <t>teshu8</t>
-  </si>
-  <si>
     <t>三同花顺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +242,40 @@
   </si>
   <si>
     <t>四套三条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUIZI</t>
+  </si>
+  <si>
+    <t>WUTONG</t>
+  </si>
+  <si>
+    <t>QINGLONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YITIAOLONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANTONGHUASHUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIUDUIBAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSHUNZI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANTONGHUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANFENTIANXIA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +626,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -638,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -671,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -682,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -693,18 +706,21 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>40</v>
       </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -712,10 +728,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -723,10 +739,10 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -734,10 +750,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -745,10 +761,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -756,10 +772,10 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -767,10 +783,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -778,18 +794,21 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
         <v>48</v>
       </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -797,10 +816,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -808,10 +827,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -819,10 +838,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -830,7 +849,7 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -838,10 +857,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -849,10 +868,10 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -860,10 +879,10 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -871,10 +890,10 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -882,10 +901,10 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -893,10 +912,10 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -904,10 +923,10 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -915,10 +934,10 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -926,10 +945,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -937,10 +956,10 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -948,10 +967,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -959,10 +978,10 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -970,10 +989,10 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -981,10 +1000,10 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -992,10 +1011,10 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Enum_audioName.xlsx
+++ b/Enum_audioName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,9 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start_compare</t>
-  </si>
-  <si>
     <t>清龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +273,33 @@
   </si>
   <si>
     <t>SANFENTIANXIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QINGCHUPAI</t>
+  </si>
+  <si>
+    <t>请出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAISHIBIPAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHENGLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIBAI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -692,329 +716,362 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Enum_audioName.xlsx
+++ b/Enum_audioName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>SHIBAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITAOSANTIAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +654,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -905,6 +909,9 @@
       <c r="A24">
         <v>52</v>
       </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
